--- a/python/데이터분석/insurance/preprocessed_data.xlsx
+++ b/python/데이터분석/insurance/preprocessed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,628 +434,676 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>유형1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>유형2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>보험 보장 대상</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>상세 설명</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>보장단위</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>보장금액</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>월 보험료</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>기본 보험료</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>할증 보험료</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>그룹</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>보험기간</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>보장기간</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>납입기간(년)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>갱신</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>만기 보험료</t>
+          <t>갱신여부</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>총 보험료</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>보장 대비 납입율</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>입원</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>간병인1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>(체증형)상해 입원 간병인 사용일당(1일이상)(요양병원 제외)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>상해사고로 병·의원(요양병원 제외) 등에 1일이상 계속 입원하여 치료를 받 으며, 약관에 정한 간병인을 사용한 경우 1일당 간병인 사용금액을 기준으 로 차등지급(180일을 한도로 간병인 사용 1일당 일당지급)
 ※ (1일당 간병인 사용금액 기준) 7만원 미만인 경우 : 가입금액의 50%를 매5년마다 10%씩 정액 할증한 금액 지급, 7만원 이상인 경우 : 가입금액의 100%를 매5년마다 10%씩 정액 할증한 금액 지급
 ※ 1일당 간병인 사용금액은 연속적인 간병인 사용일마다 총 사용금액을 총 사용일수로 나눈 금액으로 판단함</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1일</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>150000</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7305</v>
       </c>
       <c r="H2" t="n">
         <v>7305</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>7305</v>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>20</v>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>1753200</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>11.688</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>입원</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>간병인1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>(체증형)상해 입원 간병인 사용일당(1일이상)(요양병원)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>상해사고로 요양병원에 1일이상 계속 입원하여 치료를 받으며, 약관에 정한 간병인을 사용한 경우 가입금액을 매5년마다 10%씩 정액 할증한 금액을 지급(180일을 한도로 간병인 사용 1일당 일당지급)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1일</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>30000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>393</v>
       </c>
       <c r="H3" t="n">
         <v>393</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>393</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>20</v>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>94320</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>3.144</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>입원</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>간병인1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>(체증형)질병 입원 간병인 사용일당(1일이상)(요양병원 제외)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>보험기간 중 질병으로 병·의원(요양병원 제외) 등에 1일이상 계속 입원하여 치료를 받으며, 약관에 정한 간병인을 사용한 경우 1일당 간병인 사용금액 을 기준으로 차등지급(180일을 한도로 간병인 사용 1일당 일당지급)
 ※ (1일당 간병인 사용금액 기준) 7만원 미만인 경우 : 가입금액의 50%를 매5년마다 10%씩 정액 할증한 금액 지급, 7만원 이상인 경우 : 가입금액의 100%를 매5년마다 10%씩 정액 할증한 금액 지급
 ※ 1일당 간병인 사용금액은 연속적인 간병인 사용일마다 총 사용금액을 총 사용일수로 나눈 금액으로 판단함</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1일</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>150000</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>25297</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>17265</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>8032</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>20</v>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>6071280</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>40.4752</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>입원</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>간병인1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>(체증형)질병 입원 간병인 사용일당(1일이상)(요양병원)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>보험기간 중 질병으로 요양병원에 1일이상 계속 입원하여 치료를 받으며, 약관에 정한 간병인을 사용한 경우 가입금액을 매5년마다 10%씩 정액 할 증한 금액을 지급(180일을 한도로 간병인 사용 1일당 일당지급)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1일</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>10000</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>3438</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>2374</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1064</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>20</v>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>825120</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>82.512</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>입원</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>간병인2</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>(체증형,20년후2배)상해 입원 간병인 사용일당(1 일이상)(요양병원 제외)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>상해사고로 병·의원(요양병원 제외) 등에 1일이상 계속 입원하여 치료를 받 으며, 약관에 정한 간병인을 사용한 경우 1일당 간병인 사용금액을 기준으 로 차등지급(180일을 한도로 간병인 사용 1일당 일당지급)
 ※ (1일당 간병인 사용금액 기준) 7만원 미만인 경우 : 가입후 20년 미만 시 가입금액의 50%를 지급하고 가입후 20년 이상 시 가입금액의 100%를 지 급, 7만원 이상인 경우 : 가입후 20년 미만 시 가입금액의 100%를 지급하 고 가입후 20년 이상 시 가입금액의 200%를 지급
 ※ 1일당 간병인 사용금액은 연속적인 간병인 사용일마다 총 사용금액을 총 사용일수로 나눈 금액으로 판단함</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1일</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>150000</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7695</v>
       </c>
       <c r="H6" t="n">
         <v>7695</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>7695</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>20</v>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
         <v>1846800</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>12.312</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>입원</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>간병인2</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>(체증형,20년후2배)상해 입원 간병인 사용일당(1 일이상)(요양병원)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>상해사고로 요양병원에 1일이상 계속 입원하여 치료를 받으며, 약관에 정한 간병인을 사용한 경우 가입후 20년 미만 시 가입금액의 100%를 지급, 가 입후 20년 이상 시 가입금액의 200%를 지급(180일을 한도로 간병인 사용 1일당 일당지급)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1일</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>30000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>396</v>
       </c>
       <c r="H7" t="n">
         <v>396</v>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>396</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>20</v>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
         <v>95040</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>3.168</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>입원</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>간병인2</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>(체증형,20년후2배)질병 입원 간병인 사용일당(1 일이상)(요양병원 제외)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>보험기간 중 질병으로 병·의원(요양병원 제외) 등에 1일이상 계속 입원하여 치료를 받으며, 약관에 정한 간병인을 사용한 경우 1일당 간병인 사용금액 을 기준으로 차등지급(180일을 한도로 간병인 사용 1일당 일당지급)
 ※ (1일당 간병인 사용금액 기준) 7만원 미만인 경우 : 가입후 20년 미만 시 가입금액의 50%를 지급하고 가입후 20년 이상 시 가입금액의 100%를 지 급, 7만원 이상인 경우 : 가입후 20년 미만 시 가입금액의 100%를 지급하 고 가입후 20년 이상 시 가입금액의 200%를 지급
 ※ 1일당 간병인 사용금액은 연속적인 간병인 사용일마다 총 사용금액을 총 사용일수로 나눈 금액으로 판단함</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1일</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>150000</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>26733</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>18240</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>8493</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>20</v>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
         <v>6415920</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>42.7728</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>입원</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>간병인2</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>(체증형,20년후2배)질병 입원 간병인 사용일당(1 일이상)(요양병원)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>보험기간 중 질병으로 요양병원에 1일이상 계속 입원하여 치료를 받으며, 약관에 정한 간병인을 사용한 경우 가입후 20년 미만 시 가입금액의 100% 를 지급, 가입후 20년 이상 시 가입금액의 200%를 지급(180일을 한도로 간병인 사용 1일당 일당지급)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1일</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>30000</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>10338</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>7131</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>3207</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>20</v>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
         <v>2481120</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>82.70399999999999</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>생활</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>일상배상</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>[갱신형] 가족 일상생활중 배상책임Ⅱ</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>본인 및 약관에 정한 가족의 일상생활 및 보험증권에 기재된 주택의 소유, 사용 또는 관리로 인한 사고로 타인의 신체의 피해(대인) 또는 재물의 손해 (대물)에 대한 법률상 배상책임을 부담함으로써 입은 손해 발생시 가입금액 을 한도로 보상</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>100000000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1154</v>
       </c>
       <c r="H10" t="n">
         <v>1154</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1154</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>20</v>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>갱신</t>
         </is>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>276960</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>0.0027696</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>로봇수술</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>[갱신형] 암(특정암 제외) 다빈치로봇 수술비</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>보장개시일 이후 암(특정암 제외)으로 진단 확정되고 그 암(특정암 제외)의 직접적인 치료를 목적으로 다빈치 로봇수술을 받은 경우 가입금액 지급(최 초 1회한)
 ※ 암(특정암 제외)의 보장개시일은 최초 계약일 또는 부활(효력회복)일부 터 90일이 지난 날의 다음날임
@@ -1063,944 +1111,1024 @@
 ※ 특정암은 갑상선암, 전립선암임</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>최초 1회</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>20000000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1120</v>
       </c>
       <c r="H11" t="n">
         <v>1120</v>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1120</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>갱신</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>134400</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.00672</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>갱신</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>134400</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.00672</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>로봇수술</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>[갱신형] 특정암 다빈치로봇 수술비</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>보장개시일 이후 특정암(갑상선암, 전립선암)으로 진단 확정되고 그 특정암 의 직접적인 치료를 목적으로 다빈치 로봇수술을 받은 경우 가입금액 지급( 최초 1회한)
 ※ 특정암의 보장개시일은 최초 계약일 또는 부활(효력회복)일부터 90일이 지난 날의 다음날임
 ※ 최초 보험가입후 180일 미만에 보험금 지급사유가 발생한 경우 가입금 액의 75% 감액 지급(25%지급), 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급함</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>최초 1회</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>200</v>
       </c>
       <c r="H12" t="n">
         <v>200</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>200</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>10</v>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>갱신</t>
         </is>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>24000</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>0.0024</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>생활</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>일상배상</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>[공제][갱신형] 가족 일상생활중 배상책임Ⅱ</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>※ 1사고당 자기부담금 : 대인 없음, 대물누수사고 50만원, 대물누수사고외 20만원</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>500000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>20</v>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>갱신</t>
         </is>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>111대질병 수술비(19대생활질병)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>보험기간 중 약관에 정한 19대 생활질병으로 진단 확정되고 그 치료를 직접 적인 목적으로 수술을 받은 경우 가입금액 지급(수술 1회당)
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>100000</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>22</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>15</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>7</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>20</v>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
         <v>5280</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>0.0528</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>111대질병 수술비(22대주요질병)</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>보험기간 중 약관에 정한 22대 주요질병으로 진단 확정되고 그 치료를 직접 적인 목적으로 수술을 받은 경우 가입금액 지급(수술 1회당)
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1000000</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>704</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>482</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>222</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>20</v>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
         <v>168960</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>0.16896</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>111대질병 수술비(3대주요질병)</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>보험기간 중 약관에 정한 갑상선질환, 고혈압 및 당뇨병으로 진단 확정되고 그 치료를 직접적인 목적으로 수술을 받은 경우 가입금액 지급(수술 1회당)
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>500000</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>275</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>188</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>87</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>20</v>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
         <v>66000</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>0.132</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>111대질병 수술비(5대주요기관관혈)</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>보험기간 중 약관에 정한 뇌질환, 심질환, 간·췌장질환 및 폐질환으로 진단 확정되고 그 치료를 직접적인 목적으로 내시경수술, 카테터수술, 신의료수 술 이외의 수술 중 약관에 정한 관혈수술을 받은 경우 가입금액 지급(수술 1 회당)
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급
 ※ 단, 수술 중 비관혈수술과 관혈수술이 동시에 행해진 경우에는 관혈수술 비만 지급</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>20000000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7320</v>
       </c>
       <c r="H17" t="n">
         <v>7320</v>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>7320</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>20</v>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
         <v>1756800</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>0.08784</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>111대질병 수술비(5대주요기관비관혈)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>보험기간 중 약관에 정한 뇌질환, 심질환, 간·췌장질환 및 폐질환으로 진단 확정되고 그 치료를 직접적인 목적으로 약관에 정한 비관혈수술(내시경수 술, 카테터수술, 신의료수술)을 받은 경우 가입금액 지급(수술 1회당)
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급
 ※ 단, 수술 중 비관혈수술과 관혈수술이 동시에 행해진 경우에는 관혈수술 비만 지급</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2110</v>
       </c>
       <c r="H18" t="n">
         <v>2110</v>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>2110</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>20</v>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
         <v>506400</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>0.05064</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>111대질병 수술비(62대생활질병)</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>보험기간 중 약관에 정한 62대 생활질병으로 진단 확정되고 그 치료를 직접 적인 목적으로 수술을 받은 경우 가입금액 지급(수술 1회당)
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>200000</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>3419</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>2322</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>1097</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>20</v>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
         <v>820560</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>4.1028</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>4대특정질병 치료·수술비(3대특정질병)</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>보험기간 중 약관에 정한 체외충격파쇄석술(급여) 치료, 제왕절개만출술(급 여) 수술 및 요실금으로 진단 확정되고 그 치료를 직접적인 목적으로 요실금 수술(급여) 수술을 받은 경우 가입금액 지급(각각 연간 1회한)
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>200000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>124</v>
       </c>
       <c r="H20" t="n">
         <v>124</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="n">
+        <v>124</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>20</v>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
         <v>29760</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>0.1488</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>4대특정질병 치료·수술비(선천이상)</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>보험기간 중 약관에 정한 선천성이상 질병의 치료를 직접적인 목적으로 수 술을 받은 경우 가입금액 지급(연간 1회한)
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>200000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>124</v>
       </c>
       <c r="H21" t="n">
         <v>124</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
+      <c r="I21" t="n">
+        <v>124</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>29760</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.1488</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>29760</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.1488</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>골절</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>5대골절 수술비</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>상해사고로 약관에 정한 5대골절로 수술받은 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>500000</v>
-      </c>
-      <c r="G22" t="n">
-        <v>80</v>
       </c>
       <c r="H22" t="n">
         <v>80</v>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>80</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>20</v>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
         <v>19200</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>0.0384</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>갑상선</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>갑상선기능저하증 진단비</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>보험기간 중 약관에서 정한 「갑상선기능저하증」으로 진단 확정된 경우 가입 금액 지급(최초 1회한)
 ※ 최초 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>최초 1회</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>1000000</v>
-      </c>
-      <c r="G23" t="n">
-        <v>170</v>
       </c>
       <c r="H23" t="n">
         <v>170</v>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>170</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>20</v>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
         <v>40800</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>0.0408</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>갑상선</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>갑상선기능항진증 치료비</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>보험기간 중 약관에서 정한 「갑상선기능항진증」으로 진단 확정되고 「갑상선 기능항진증 치료」를 받은 경우 가입금액 지급(최초 1회한)
 ※ 최초 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>최초 1회</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>2000000</v>
-      </c>
-      <c r="G24" t="n">
-        <v>260</v>
       </c>
       <c r="H24" t="n">
         <v>260</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>260</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>20</v>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
         <v>62400</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>0.0312</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>골절</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>골절 진단비</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>상해사고로 약관에 정한 골절로 진단 확정된 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>100000</v>
-      </c>
-      <c r="G25" t="n">
-        <v>898</v>
       </c>
       <c r="H25" t="n">
         <v>898</v>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>898</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>20</v>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
         <v>215520</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>2.1552</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>골절</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>골절 진단비(치아파절(깨짐, 부러짐) 제외)</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>상해사고로 약관에 정한 골절(치아파절(깨짐, 부러짐) 제외)로 진단 확정된 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>200000</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1140</v>
       </c>
       <c r="H26" t="n">
         <v>1140</v>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>1140</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>20</v>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
         <v>273600</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>1.368</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>기타피부암 및 갑상선암 진단후 암특정치료비(진단후5년, 연간1회한)</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>보장개시일 이후 기타피부암 또는 갑상선암으로 진단 확정되고 「기타피부암 및 갑상선암 보험금 지급기간」이내에 「기타피부암 및 갑상선암 특정치료」를 받은 경우 가입금액을 지급(연간 1회한)
 ※ 기타피부암 또는 갑상선암의 보장개시일은 최초 계약일 또는 부활(효력 회복)일부터 90일이 지난 날의 다음날임
@@ -2008,175 +2136,190 @@
 ※ 기타피부암 및 갑상선암 특정치료는 수술, 항암방사선치료, 항암약물치 료 및 말기암 환자에 대한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>1000000</v>
-      </c>
-      <c r="G27" t="n">
-        <v>130</v>
       </c>
       <c r="H27" t="n">
         <v>130</v>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>130</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>20</v>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
         <v>31200</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>0.0312</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>기타피부암 및 갑상선암 치료비 지원</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>보장개시일 이후 기타피부암 또는 갑상선암으로 진단 확정된 경우 가입금액 지급(최초 1회한)
 ※ 기타피부암 또는 갑상선암의 보장개시일은 최초 계약일 또는 부활(효력 회복)일부터 90일이 지난 날의 다음날임</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>최초 1회</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>100000</v>
-      </c>
-      <c r="G28" t="n">
-        <v>12</v>
       </c>
       <c r="H28" t="n">
         <v>12</v>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>12</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>20</v>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
         <v>2880</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>0.0288</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>골절</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>깁스 치료비(부목치료 제외)</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>보험기간 중 상해 또는 질병으로 약관에 정한 깁스치료를 받은 경우 가입금 액 지급
 ※ 부목치료(Splint Cast)는 제외</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>100000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>123</v>
       </c>
       <c r="H29" t="n">
         <v>123</v>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>123</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>20</v>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
         <v>29520</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>0.2952</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>보험료 납입면제대상Ⅱ</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>보장개시일 이후 상해사고로 80%이상 후유장해가 발생하거나 약관에서 정 한 암, 뇌졸중, 급성심근경색증, 중대 화상·부식으로 진단 확정 또는 뇌·내장 손상 수술로 보험료 납입면제사유가 발생한 경우 가입금액 지급(최초 1회한
 )
@@ -2184,898 +2327,973 @@
 ※ 기타피부암, 갑상선암, 대장점막내암, 제자리암 및 경계성종양은 납입면 제사유에서 제외됨</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>최초 1회</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>100000</v>
-      </c>
-      <c r="G30" t="n">
-        <v>168</v>
       </c>
       <c r="H30" t="n">
         <v>168</v>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>168</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>20</v>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
         <v>40320</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>0.4032</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>상해 1종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>보험기간 중 상해의 치료를 직접적인 목적으로 약관에서 정한 1종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>300000</v>
-      </c>
-      <c r="G31" t="n">
-        <v>546</v>
       </c>
       <c r="H31" t="n">
         <v>546</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
+      <c r="I31" t="n">
+        <v>546</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>20</v>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
         <v>131040</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>0.4368</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>상해 2종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>보험기간 중 상해의 치료를 직접적인 목적으로 약관에서 정한 2종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>300000</v>
-      </c>
-      <c r="G32" t="n">
-        <v>546</v>
       </c>
       <c r="H32" t="n">
         <v>546</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
+      <c r="I32" t="n">
+        <v>546</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>20</v>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
         <v>131040</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>0.4368</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>상해 3종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>보험기간 중 상해의 치료를 직접적인 목적으로 약관에서 정한 3종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>450000</v>
-      </c>
-      <c r="G33" t="n">
-        <v>546</v>
       </c>
       <c r="H33" t="n">
         <v>546</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
+      <c r="I33" t="n">
+        <v>546</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>20</v>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
         <v>131040</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>0.2912</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>상해 4종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>보험기간 중 상해의 치료를 직접적인 목적으로 약관에서 정한 4종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>450000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>546</v>
       </c>
       <c r="H34" t="n">
         <v>546</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
+      <c r="I34" t="n">
+        <v>546</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>20</v>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
         <v>131040</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>0.2912</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>상해 5종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>보험기간 중 상해의 치료를 직접적인 목적으로 약관에서 정한 5종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>5000000</v>
-      </c>
-      <c r="G35" t="n">
-        <v>267</v>
       </c>
       <c r="H35" t="n">
         <v>267</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
+      <c r="I35" t="n">
+        <v>267</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>20</v>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
         <v>64080</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>0.012816</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>상해 6종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>보험기간 중 상해의 치료를 직접적인 목적으로 약관에서 정한 6종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G36" t="n">
-        <v>266</v>
       </c>
       <c r="H36" t="n">
         <v>266</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
+      <c r="I36" t="n">
+        <v>266</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>20</v>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
         <v>63840</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>0.006384</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>상해 7종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>보험기간 중 상해의 치료를 직접적인 목적으로 약관에서 정한 7종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>15000000</v>
-      </c>
-      <c r="G37" t="n">
-        <v>266</v>
       </c>
       <c r="H37" t="n">
         <v>266</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
+      <c r="I37" t="n">
+        <v>266</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>20</v>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
         <v>63840</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>0.004256</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>상해 8종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>보험기간 중 상해의 치료를 직접적인 목적으로 약관에서 정한 8종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>25000000</v>
-      </c>
-      <c r="G38" t="n">
-        <v>266</v>
       </c>
       <c r="H38" t="n">
         <v>266</v>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
+      <c r="I38" t="n">
+        <v>266</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>20</v>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
         <v>63840</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>0.0025536</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>상해 골절 수술비</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>상해사고로 약관에 정한 골절로 수술받은 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>200000</v>
-      </c>
-      <c r="G39" t="n">
-        <v>372</v>
       </c>
       <c r="H39" t="n">
         <v>372</v>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>372</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>20</v>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
         <v>89280</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>0.4464</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>간병/사망</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>상해 사망</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>상해사고로 사망한 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>50000000</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2550</v>
       </c>
       <c r="H40" t="n">
         <v>2550</v>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>2550</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>20</v>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
         <v>612000</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>0.01224</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>입원</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>상해 입원 간호·간병통합서비스 사용일당(1일이상)</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>상해사고로 병원(요양병원 제외)에 1일이상 계속 입원하여 치료를 받으며, 약관에 정한 간호·간병통합서비스를 사용한 경우 가입금액 지급(180일을 한도로 간호·간병통합서비스 사용 1일당 일당지급)</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1일</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>70000</v>
-      </c>
-      <c r="G41" t="n">
-        <v>805</v>
       </c>
       <c r="H41" t="n">
         <v>805</v>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>805</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>20</v>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
         <v>193200</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>2.76</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>장해/장애</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>상해 후유장해(3~100%)</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>상해사고로 후유장해가 발생한 경우 가입금액 한도로 지급</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>20000000</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1000</v>
       </c>
       <c r="H42" t="n">
         <v>1000</v>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>1000</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>20</v>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
         <v>240000</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>0.012</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>상해</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>아킬레스힘줄손상 수술비</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>상해사고로 약관에 정한 아킬레스힘줄손상으로 진단확정되어 수술을 받은 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>1000000</v>
-      </c>
-      <c r="G43" t="n">
-        <v>60</v>
       </c>
       <c r="H43" t="n">
         <v>60</v>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>60</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>20</v>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
         <v>14400</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>0.0144</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>암(기타피부암 및 갑상선암 제외) 치료비 지원</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>보장개시일 이후 암으로 진단 확정된 경우 가입금액 지급(최초 1회한)
 ※ 암의 보장개시일은 최초 계약일 또는 부활(효력회복)일부터 90일이 지난 날의 다음날임</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>최초 1회</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>100000</v>
-      </c>
-      <c r="G44" t="n">
-        <v>115</v>
       </c>
       <c r="H44" t="n">
         <v>115</v>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>115</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>20</v>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
         <v>27600</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>0.276</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>암(기타피부암및갑상선암제외) 진단후 암특정치료비(진단후5년,연간1회한)</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>보장개시일 이후 암으로 진단 확정되고 「암(기타피부암 및 갑상선암 제외) 보험금 지급기간」이내에 「암(기타피부암 및 갑상선암 제외) 특정치료」를 받 은 경우 가입금액을 지급(연간 1회한)
 ※ 암의 보장개시일은 최초 계약일 또는 부활(효력회복)일부터 90일이 지난 날의 다음날임
@@ -3083,232 +3301,252 @@
 ※ 암(기타피부암 및 갑상선암 제외) 특정치료는 수술, 항암방사선치료, 항 암약물치료 및 말기암 환자에 대한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G45" t="n">
-        <v>14630</v>
       </c>
       <c r="H45" t="n">
         <v>14630</v>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>14630</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>20</v>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
         <v>3511200</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>0.35112</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>유사암진단 납입지원</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>이 특별약관의 보험기간 중 「기타피부암」,「갑상선암」,「대장점막내암」,「제자 리암」또는「경계성종양」으로 진단확정된 경우 차회 이후 이 계약의 보험료 납 입시마다 이 특별약관 가입금액을 보험료의 일부로 납입 지원
 ※ 계약내용이 변경(보험가입금액의 변경, 직업의 변경 등)되는 경우 이 특 별약관의 가입금액이 변경될 수 있습니다.</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>66000</v>
-      </c>
-      <c r="G46" t="n">
-        <v>488</v>
       </c>
       <c r="H46" t="n">
         <v>488</v>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>488</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
         <is>
           <t>20년만기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>20</v>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
         <v>117120</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>1.774545454545455</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>응급의료</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>응급의료 아나필락시스 진단비(연간1회한)</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>보험기간 중 응급실에 내원하여 약관에서 정한 아나필락시스(anaphylaxis) 로 진단 확정된 경우 가입금액 지급(연간 1회한)</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>2000000</v>
-      </c>
-      <c r="G47" t="n">
-        <v>200</v>
       </c>
       <c r="H47" t="n">
         <v>200</v>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>200</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>20</v>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
         <v>48000</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>0.024</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>인공관절</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>인공관절치환 수술비</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>보험기간 중 상해 또는 질병으로 약관에 정한 인공관절치환 수술을 받은 경우 가입금액 지급(최초 1회한 지급)
 ※ 단, 약관에서 정한 고관절, 슬관절, 견관절에 한해 보장</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>최초 1회</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>2500000</v>
-      </c>
-      <c r="G48" t="n">
-        <v>775</v>
       </c>
       <c r="H48" t="n">
         <v>775</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>775</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>20</v>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
         <v>186000</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>0.07439999999999999</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>종합병원 암 특정치료지원금(연간 1억원 이상, 진단 후 5년)</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>보장개시일 이후 암, 기타피부암 또는 갑상선암으로 진단 확정되고 「암 보험 금 지급기간」이내에 「종합병원」에서 「암 특정치료」를 받아 발생한 「연간 암 특정치료비 총액」이 1억원 이상인 경우 가입금액을 지급(연간 1회한)
 ※ 암, 기타피부암 또는 갑상선암의 보장개시일은 최초 계약일 또는 부활(효 력회복)일부터 90일이 지난 날의 다음날임
@@ -3316,59 +3554,64 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G49" t="n">
-        <v>387</v>
       </c>
       <c r="H49" t="n">
         <v>387</v>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>387</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>20</v>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
         <v>92880</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>0.009287999999999999</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>종합병원 암 특정치료지원금(연간 1천만원 이상, 진단 후 5년)</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>보장개시일 이후 암, 기타피부암 또는 갑상선암으로 진단 확정되고 「암 보험 금 지급기간」이내에 「종합병원」에서 「암 특정치료」를 받아 발생한 「연간 암 특정치료비 총액」이 1천만원 이상인 경우 가입금액을 지급(연간 1회한)
 ※ 암, 기타피부암 또는 갑상선암의 보장개시일은 최초 계약일 또는 부활(효 력회복)일부터 90일이 지난 날의 다음날임
@@ -3376,59 +3619,64 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>5449</v>
       </c>
       <c r="H50" t="n">
         <v>5449</v>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>5449</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>20</v>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
         <v>1307760</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>0.130776</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>종합병원 암 특정치료지원금(연간 2천만원 이상, 진단 후 5년)</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>보장개시일 이후 암, 기타피부암 또는 갑상선암으로 진단 확정되고 「암 보험 금 지급기간」이내에 「종합병원」에서 「암 특정치료」를 받아 발생한 「연간 암 특정치료비 총액」이 2천만원 이상인 경우 가입금액을 지급(연간 1회한)
 ※ 암, 기타피부암 또는 갑상선암의 보장개시일은 최초 계약일 또는 부활(효 력회복)일부터 90일이 지난 날의 다음날임
@@ -3436,59 +3684,64 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2390</v>
       </c>
       <c r="H51" t="n">
         <v>2390</v>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>2390</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>20</v>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
         <v>573600</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>0.05736</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>종합병원 암 특정치료지원금(연간 3천만원 이상, 진단 후 5년)</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>보장개시일 이후 암, 기타피부암 또는 갑상선암으로 진단 확정되고 「암 보험 금 지급기간」이내에 「종합병원」에서 「암 특정치료」를 받아 발생한 「연간 암 특정치료비 총액」이 3천만원 이상인 경우 가입금액을 지급(연간 1회한)
 ※ 암, 기타피부암 또는 갑상선암의 보장개시일은 최초 계약일 또는 부활(효 력회복)일부터 90일이 지난 날의 다음날임
@@ -3496,59 +3749,64 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1581</v>
       </c>
       <c r="H52" t="n">
         <v>1581</v>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>1581</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>20</v>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
         <v>379440</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>0.037944</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>종합병원 암 특정치료지원금(연간 4천만원 이상, 진단 후 5년)</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>보장개시일 이후 암, 기타피부암 또는 갑상선암으로 진단 확정되고 「암 보험 금 지급기간」이내에 「종합병원」에서 「암 특정치료」를 받아 발생한 「연간 암 특정치료비 총액」이 4천만원 이상인 경우 가입금액을 지급(연간 1회한)
 ※ 암, 기타피부암 또는 갑상선암의 보장개시일은 최초 계약일 또는 부활(효 력회복)일부터 90일이 지난 날의 다음날임
@@ -3556,59 +3814,64 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1164</v>
       </c>
       <c r="H53" t="n">
         <v>1164</v>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>1164</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>20</v>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
         <v>279360</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>0.027936</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>종합병원 암 특정치료지원금(연간 5천만원 이상, 진단 후 5년)</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>보장개시일 이후 암, 기타피부암 또는 갑상선암으로 진단 확정되고 「암 보험 금 지급기간」이내에 「종합병원」에서 「암 특정치료」를 받아 발생한 「연간 암 특정치료비 총액」이 5천만원 이상인 경우 가입금액을 지급(연간 1회한)
 ※ 암, 기타피부암 또는 갑상선암의 보장개시일은 최초 계약일 또는 부활(효 력회복)일부터 90일이 지난 날의 다음날임
@@ -3616,59 +3879,64 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G54" t="n">
-        <v>808</v>
       </c>
       <c r="H54" t="n">
         <v>808</v>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>808</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>20</v>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
         <v>193920</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>0.019392</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>종합병원 암 특정치료지원금(연간 6천만원 이상, 진단 후 5년)</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>보장개시일 이후 암, 기타피부암 또는 갑상선암으로 진단 확정되고 「암 보험 금 지급기간」이내에 「종합병원」에서 「암 특정치료」를 받아 발생한 「연간 암 특정치료비 총액」이 6천만원 이상인 경우 가입금액을 지급(연간 1회한)
 ※ 암, 기타피부암 또는 갑상선암의 보장개시일은 최초 계약일 또는 부활(효 력회복)일부터 90일이 지난 날의 다음날임
@@ -3676,59 +3944,64 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G55" t="n">
-        <v>638</v>
       </c>
       <c r="H55" t="n">
         <v>638</v>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>638</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>20</v>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
         <v>153120</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
         <v>0.015312</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>종합병원 암 특정치료지원금(연간 7천만원 이상, 진단 후 5년)</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>보장개시일 이후 암, 기타피부암 또는 갑상선암으로 진단 확정되고 「암 보험 금 지급기간」이내에 「종합병원」에서 「암 특정치료」를 받아 발생한 「연간 암 특정치료비 총액」이 7천만원 이상인 경우 가입금액을 지급(연간 1회한)
 ※ 암, 기타피부암 또는 갑상선암의 보장개시일은 최초 계약일 또는 부활(효 력회복)일부터 90일이 지난 날의 다음날임
@@ -3736,59 +4009,64 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G56" t="n">
-        <v>539</v>
       </c>
       <c r="H56" t="n">
         <v>539</v>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>539</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>20</v>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
         <v>129360</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>0.012936</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>종합병원 암 특정치료지원금(연간 8천만원 이상, 진단 후 5년)</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>보장개시일 이후 암, 기타피부암 또는 갑상선암으로 진단 확정되고 「암 보험 금 지급기간」이내에 「종합병원」에서 「암 특정치료」를 받아 발생한 「연간 암 특정치료비 총액」이 8천만원 이상인 경우 가입금액을 지급(연간 1회한)
 ※ 암, 기타피부암 또는 갑상선암의 보장개시일은 최초 계약일 또는 부활(효 력회복)일부터 90일이 지난 날의 다음날임
@@ -3796,59 +4074,64 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G57" t="n">
-        <v>473</v>
       </c>
       <c r="H57" t="n">
         <v>473</v>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>473</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>20</v>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
         <v>113520</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>0.011352</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>암</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>종합병원 암 특정치료지원금(연간 9천만원 이상, 진단 후 5년)</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>보장개시일 이후 암, 기타피부암 또는 갑상선암으로 진단 확정되고 「암 보험 금 지급기간」이내에 「종합병원」에서 「암 특정치료」를 받아 발생한 「연간 암 특정치료비 총액」이 9천만원 이상인 경우 가입금액을 지급(연간 1회한)
 ※ 암, 기타피부암 또는 갑상선암의 보장개시일은 최초 계약일 또는 부활(효 력회복)일부터 90일이 지난 날의 다음날임
@@ -3856,903 +4139,975 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G58" t="n">
-        <v>421</v>
       </c>
       <c r="H58" t="n">
         <v>421</v>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>421</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>20</v>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
         <v>101040</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>0.010104</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>화상</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>중대 화상·부식 진단비</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>상해사고로 신체 표면적으로 최소 20%이상의 3도 화상 또는 부식(화학약 품 등에 의한 피부손상)을 입은 경우 가입금액 지급(최초 1회한)</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>최초 1회</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G59" t="n">
-        <v>51</v>
       </c>
       <c r="H59" t="n">
         <v>51</v>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>51</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>20</v>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
         <v>12240</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>0.001224</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>질병 1종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>보험기간 중 질병의 치료를 직접적인 목적으로 약관에서 정한 1종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>300000</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>3648</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>2454</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>1194</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>20</v>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
         <v>875520</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
         <v>2.9184</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>질병 2종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>보험기간 중 질병의 치료를 직접적인 목적으로 약관에서 정한 2종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>300000</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>3646</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>2453</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>1193</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>20</v>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
         <v>875040</v>
       </c>
-      <c r="O61" t="n">
+      <c r="P61" t="n">
         <v>2.9168</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>질병 3종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>보험기간 중 질병의 치료를 직접적인 목적으로 약관에서 정한 3종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>450000</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>3646</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>2453</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>1193</v>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>20</v>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
         <v>875040</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>1.944533333333333</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>질병 4종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>보험기간 중 질병의 치료를 직접적인 목적으로 약관에서 정한 4종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>450000</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>3646</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>2453</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>1193</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>20</v>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
         <v>875040</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>1.944533333333333</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>질병 5종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>보험기간 중 질병의 치료를 직접적인 목적으로 약관에서 정한 5종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>3000000</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>5058</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>3411</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>1647</v>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>20</v>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
         <v>1213920</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>0.40464</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>질병 6종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>보험기간 중 질병의 치료를 직접적인 목적으로 약관에서 정한 6종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>6000000</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>5056</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>3410</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>1646</v>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>20</v>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
         <v>1213440</v>
       </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
         <v>0.20224</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>질병 7종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>보험기간 중 질병의 치료를 직접적인 목적으로 약관에서 정한 7종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>9000000</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>5056</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>3410</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>1646</v>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>20</v>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
         <v>1213440</v>
       </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
         <v>0.1348266666666667</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>질병</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>질병 8종 수술비(시술포함)</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>보험기간 중 질병의 치료를 직접적인 목적으로 약관에서 정한 8종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한)
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>연간 1회</t>
         </is>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>15000000</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>5056</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>3410</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>1646</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>20</v>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
         <v>1213440</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>0.080896</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>입원</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>간호간병</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>질병 입원 간호·간병통합서비스 사용일당(1일이상)</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>보험기간 중 질병으로 병원(요양병원 제외)에 1일이상 계속 입원하여 치료 를 받으며, 약관에 정한 간호·간병통합서비스를 사용한 경우 가입금액 지급 (180일을 한도로 간호·간병통합서비스 사용 1일당 일당지급)</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1일</t>
         </is>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>70000</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>3425</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>2331</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>1094</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>20</v>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
         <v>822000</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>11.74285714285714</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>심근경색</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>혈전용해치료비(급성심근경색증)</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>보험기간 중 약관에서 정한 급성심근경색증으로 진단 확정되고, 그 치료를 직접적인 목적으로 혈전용해 치료를 받은 경우(각각 최초 1회한)</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>최초 1회</t>
         </is>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G69" t="n">
-        <v>445</v>
       </c>
       <c r="H69" t="n">
         <v>445</v>
       </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
+      <c r="I69" t="n">
+        <v>445</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>20</v>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
         <v>106800</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>0.01068</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>심근경색</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>혈전용해치료비(뇌경색증)</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>보험기간 중 약관에서 정한 뇌경색증으로 진단 확정되고, 그 치료를 직접적 인 목적으로 혈전용해 치료를 받은 경우(각각 최초 1회한)</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>최초 1회</t>
         </is>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>10000000</v>
-      </c>
-      <c r="G70" t="n">
-        <v>445</v>
       </c>
       <c r="H70" t="n">
         <v>445</v>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
+      <c r="I70" t="n">
+        <v>445</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>20</v>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
         <v>106800</v>
       </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
         <v>0.01068</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>수술</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>화상</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>화상 수술비</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>상해사고로 심재성 2도 이상에 해당하는 화상으로 진단 확정 후 그 치료를 직접적인 목적으로 수술을 받은 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>300000</v>
-      </c>
-      <c r="G71" t="n">
-        <v>11</v>
       </c>
       <c r="H71" t="n">
         <v>11</v>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>11</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>20</v>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
         <v>2640</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>진단</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>화상</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>화상 진단비</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>상해사고로 심재성 2도 이상에 해당하는 화상으로 진단 확정된 경우 가입금 액 지급</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>발생시</t>
         </is>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>100000</v>
-      </c>
-      <c r="G72" t="n">
-        <v>76</v>
       </c>
       <c r="H72" t="n">
         <v>76</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>76</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>20</v>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>납</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
         <v>18240</v>
       </c>
-      <c r="O72" t="n">
+      <c r="P72" t="n">
         <v>0.1824</v>
       </c>
     </row>
